--- a/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,12</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,96</t>
+          <t>0,0; 26,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,82</t>
+          <t>0,0; 20,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,79</t>
+          <t>-22,58; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,65; 159,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-85,85; 85,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 202,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,5; 40,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-9,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-65,46%</t>
+          <t>-46,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-50,24%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,95%</t>
+          <t>-44,1%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,4</t>
+          <t>-2,9; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,09</t>
+          <t>-3,58; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,74</t>
+          <t>-1,81; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,32</t>
+          <t>-5,11; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 103,19</t>
+          <t>-67,65; 159,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-92,29; 19,88</t>
+          <t>-85,85; 85,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-89,25; 74,29</t>
+          <t>-44,79; 202,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-92,23; 162,5</t>
+          <t>-81,5; 40,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>137,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-58,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,7%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>-0,09; 6,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,36</t>
+          <t>-2,56; 1,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,17</t>
+          <t>-3,63; 0,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 0,0</t>
+          <t>-5,69; 1,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-21,72; 732,56</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,91; 148,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>137,33%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-65,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-58,11%</t>
+          <t>-50,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-31,7%</t>
+          <t>-38,95%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,17</t>
+          <t>-3,96; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,29</t>
+          <t>-5,94; -0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,84</t>
+          <t>-4,04; 0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,9</t>
+          <t>-3,82; 1,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 732,56</t>
+          <t>-66,78; 103,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,29; 19,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,25; 74,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,91; 148,57</t>
+          <t>-92,23; 162,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>0,0; 17,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,36</t>
+          <t>0,0; 23,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,17</t>
+          <t>0,0; 22,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,6</t>
+          <t>-1,66; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 5,14</t>
+          <t>-2,06; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,47</t>
+          <t>-3,56; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,09</t>
+          <t>-1,94; 4,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 685,92</t>
+          <t>-73,73; 631,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 362,09</t>
+          <t>-100,0; 394,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,12</t>
+          <t>-2,84; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,96</t>
+          <t>-3,87; 0,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,82</t>
+          <t>-1,86; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,79</t>
+          <t>-4,86; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,65; 159,3</t>
+          <t>-69,16; 139,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,85; 85,07</t>
+          <t>-85,75; 65,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 202,36</t>
+          <t>-44,75; 203,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,5; 40,44</t>
+          <t>-83,17; 56,88</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,17</t>
+          <t>-0,38; 6,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,29</t>
+          <t>-2,33; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,84</t>
+          <t>-3,59; 0,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,9</t>
+          <t>-5,69; 2,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 732,56</t>
+          <t>-25,45; 959,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 287,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,91; 148,57</t>
+          <t>-86,65; 172,19</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,4</t>
+          <t>-4,06; 1,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,09</t>
+          <t>-5,6; -0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,74</t>
+          <t>-4,18; 1,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,32</t>
+          <t>-4,18; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 103,19</t>
+          <t>-68,94; 83,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-92,29; 19,88</t>
+          <t>-91,34; 20,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-89,25; 74,29</t>
+          <t>-88,83; 117,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-92,23; 162,5</t>
+          <t>-91,19; 183,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,71</t>
+          <t>-1,01; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,57</t>
+          <t>-2,07; 0,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,03</t>
+          <t>-1,71; 1,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,34</t>
+          <t>-3,18; 0,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 81,16</t>
+          <t>-32,92; 88,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 30,22</t>
+          <t>-61,35; 31,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 51,19</t>
+          <t>-51,78; 53,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 18,86</t>
+          <t>-69,91; 11,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,8</t>
+          <t>0,0; 18,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,3</t>
+          <t>0,0; 24,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,81</t>
+          <t>0,0; 23,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 0,0</t>
+          <t>-18,73; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,07</t>
+          <t>-2,09; 2,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,46</t>
+          <t>-2,11; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,99</t>
+          <t>-3,68; 2,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,15</t>
+          <t>-2,03; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 631,28</t>
+          <t>-79,91; 784,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 394,32</t>
+          <t>-100,0; 370,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,15</t>
+          <t>-2,84; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,71</t>
+          <t>-3,89; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,73</t>
+          <t>-1,7; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,14</t>
+          <t>-4,81; 1,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 139,75</t>
+          <t>-71,6; 126,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,75; 65,56</t>
+          <t>-85,44; 86,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 203,28</t>
+          <t>-41,73; 214,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,17; 56,88</t>
+          <t>-81,95; 59,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,2</t>
+          <t>-0,45; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,46</t>
+          <t>-2,22; 1,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,82</t>
+          <t>-3,44; 0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 2,23</t>
+          <t>-6,02; 2,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 959,88</t>
+          <t>-33,86; 693,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 287,6</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,65; 172,19</t>
+          <t>-86,22; 138,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,96</t>
+          <t>-4,18; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,03</t>
+          <t>-5,68; -0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,0</t>
+          <t>-4,0; 1,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,49</t>
+          <t>-3,84; 1,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 83,84</t>
+          <t>-70,37; 92,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-91,34; 20,7</t>
+          <t>-92,0; 23,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-88,83; 117,0</t>
+          <t>-88,79; 93,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-91,19; 183,36</t>
+          <t>-88,6; 168,18</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,72</t>
+          <t>-1,35; 1,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,58</t>
+          <t>-2,07; 0,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,0</t>
+          <t>-1,67; 0,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,18</t>
+          <t>-2,88; 0,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 88,89</t>
+          <t>-39,46; 78,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 31,81</t>
+          <t>-60,43; 39,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 53,04</t>
+          <t>-51,5; 45,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 11,2</t>
+          <t>-66,38; 16,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>130,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>20,79%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>-1,14; 3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,2</t>
+          <t>-0,77; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,82</t>
+          <t>-2,55; 3,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 0,0</t>
+          <t>-1,87; 3,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,45; 1020,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,55; 558,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>-9,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>-46,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,56%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>-46,8%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,51</t>
+          <t>-2,9; 2,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,85</t>
+          <t>-3,58; 0,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,36</t>
+          <t>-1,81; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,07</t>
+          <t>-5,32; 0,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,65; 159,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,91; 784,52</t>
+          <t>-85,85; 85,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 370,6</t>
+          <t>-44,79; 202,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,09; 36,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>137,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>-58,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-50,11%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,85</t>
+          <t>-0,09; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,84</t>
+          <t>-2,56; 1,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,87</t>
+          <t>-3,63; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,49</t>
+          <t>-8,86; 1,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,6; 126,67</t>
+          <t>-21,72; 732,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,44; 86,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 214,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 59,16</t>
+          <t>-93,8; 67,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>137,33%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-65,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-58,11%</t>
+          <t>-50,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,7%</t>
+          <t>-36,26%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,07</t>
+          <t>-3,96; 2,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,75</t>
+          <t>-5,94; -0,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,86</t>
+          <t>-4,04; 0,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,06</t>
+          <t>-3,79; 1,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 693,03</t>
+          <t>-66,78; 103,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-92,29; 19,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,25; 74,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,22; 138,74</t>
+          <t>-91,67; 187,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-65,46%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-50,24%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,95%</t>
+          <t>-40,57%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,16</t>
+          <t>-1,11; 1,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,03</t>
+          <t>-2,11; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,04</t>
+          <t>-1,66; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,44</t>
+          <t>-3,3; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 92,23</t>
+          <t>-33,0; 81,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-92,0; 23,43</t>
+          <t>-61,45; 30,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-88,79; 93,6</t>
+          <t>-50,94; 51,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-88,6; 168,18</t>
+          <t>-66,49; 12,66</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-28,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-13,43%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-35,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 0,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,88</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 0,32</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-39,46; 78,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-60,43; 39,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-51,5; 45,73</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-66,38; 16,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
